--- a/biology/Médecine/Erytech_Pharma/Erytech_Pharma.xlsx
+++ b/biology/Médecine/Erytech_Pharma/Erytech_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Erytech Pharma est une entreprise française biopharmaceutique dont le siège se situe à Lyon. Elle développe des thérapies innovantes en s’appuyant sur sa plateforme propriétaire ERYCAPS®, une nouvelle technologie permettant l’encapsulation de médicaments dans les globules rouges, pour lutter contre les formes rares de cancer et des maladies orphelines[4].
+Erytech Pharma est une entreprise française biopharmaceutique dont le siège se situe à Lyon. Elle développe des thérapies innovantes en s’appuyant sur sa plateforme propriétaire ERYCAPS®, une nouvelle technologie permettant l’encapsulation de médicaments dans les globules rouges, pour lutter contre les formes rares de cancer et des maladies orphelines.
 Elle est cotée à la bourse de Paris et au NASDAQ.
 </t>
         </is>
@@ -513,14 +525,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">2004 : Création de la Société à Lyon, France
 2005 : 1er essai clinique lancé 
 2011 : Partenariat avec le groupe israélien Teva officialisé
-2013 : Cotation sur le marché réglementé EURONEXT, Paris[5] 
+2013 : Cotation sur le marché réglementé EURONEXT, Paris 
 2016 : Ouverture de la filiale américaine
-2017 : Introduction au NASDAQ sous la forme d'« American Depositary Shares » avec environ 130 millions de dollars[6] levés
+2017 : Introduction au NASDAQ sous la forme d'« American Depositary Shares » avec environ 130 millions de dollars levés
 2019 : Ouverture du site de production américain à Princeton, New Jersey
 </t>
         </is>
@@ -550,27 +564,13 @@
           <t>Produits et Développements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Erytech met en œuvre une technologie d'encapsulation de médicaments dans les globules rouges, grâce à l'application d'un choc osmotique réversible.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erytech met en œuvre une technologie d'encapsulation de médicaments dans les globules rouges, grâce à l'application d'un choc osmotique réversible.
 Le produit phare de la société, eryaspase, encapsule l'Asparaginase, dans des globules rouges de donneurs sélectionnés pour leur groupe sanguin.
-Développement préclinique
-Des programmes de recherche sont en cours de développement pour identifier des traitements contre certains cancers ou certaines maladies rares, métaboliques ou génétiques.
-Dans ces domaines, l’encapsulation d’enzymes thérapeutiques reste une piste privilégiée pour la Société.
-Études cliniques évaluant eryaspase
-Leucémie Aigue Lymphoblastique
-Six essais cliniques - environ 200 patients
-Dernière Phase 2 sur 55 patients dans des pays d'Europe du Nord, avec résultats positifs publiés dans le British Journal of Haematology[7] 2022
-Obtention du statut Fast Track[8] pour eryaspase dans la LAL hypersensible par les autorités sanitaires américaines
-Cancer du pancréas
-Phase I - seconde ligne -  Lancement 2011 - 12 patients
-Phase II - seconde ligne - Lancement 2014 - 141 patients
-Phase III - seconde ligne - Lancement 2018 - plus de 500 patients - critère dévaluation prinicipal non atteint[9]
-Statut FastTrack par la FDA américaine[10]
-Phase I - première ligne - Lancement en 2020 - 18 patients[11],[12]
-Cancer du Sein Triple Négatif
-Phase II dans le traitement du cancer du sein triple négatif[13]
-Recrutement interrompu</t>
+</t>
         </is>
       </c>
     </row>
@@ -595,13 +595,181 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Produits et Développements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Développement préclinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des programmes de recherche sont en cours de développement pour identifier des traitements contre certains cancers ou certaines maladies rares, métaboliques ou génétiques.
+Dans ces domaines, l’encapsulation d’enzymes thérapeutiques reste une piste privilégiée pour la Société.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Produits et Développements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Études cliniques évaluant eryaspase</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Leucémie Aigue Lymphoblastique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six essais cliniques - environ 200 patients
+Dernière Phase 2 sur 55 patients dans des pays d'Europe du Nord, avec résultats positifs publiés dans le British Journal of Haematology 2022
+Obtention du statut Fast Track pour eryaspase dans la LAL hypersensible par les autorités sanitaires américaines
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Produits et Développements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Études cliniques évaluant eryaspase</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cancer du pancréas</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phase I - seconde ligne -  Lancement 2011 - 12 patients
+Phase II - seconde ligne - Lancement 2014 - 141 patients
+Phase III - seconde ligne - Lancement 2018 - plus de 500 patients - critère dévaluation prinicipal non atteint
+Statut FastTrack par la FDA américaine
+Phase I - première ligne - Lancement en 2020 - 18 patients,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Produits et Développements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Études cliniques évaluant eryaspase</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cancer du Sein Triple Négatif</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phase II dans le traitement du cancer du sein triple négatif
+Recrutement interrompu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erytech_Pharma</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Fondateurs et Gouvernance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ERYTECH Pharma est fondée en 2004 par Yann Godfrin et Pierre-Olivier Goineau[14].
-Yann Godfrin en sera le Directeur Général de sa création jusqu'à 2010, avant de prendre le rôle de directeur scientifique. Il quitte la société en 2016[15].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ERYTECH Pharma est fondée en 2004 par Yann Godfrin et Pierre-Olivier Goineau.
+Yann Godfrin en sera le Directeur Général de sa création jusqu'à 2010, avant de prendre le rôle de directeur scientifique. Il quitte la société en 2016.
 Gil Beyen est Directeur Général d’ERYTECH Pharma depuis mai 2013, et Président d’Erytech Pharma Inc. depuis 2016.
 </t>
         </is>
